--- a/assets/data/Copy of DataBase.xlsx
+++ b/assets/data/Copy of DataBase.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
-  <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="23">
   <si>
     <t>Group</t>
   </si>
@@ -97,6 +97,12 @@
   </si>
   <si>
     <t>Type</t>
+  </si>
+  <si>
+    <t>Students</t>
+  </si>
+  <si>
+    <t>l2-c10,l2-c11,l2-c18,l2-c19</t>
   </si>
 </sst>
 </file>
@@ -459,7 +465,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -557,7 +563,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,7 +591,7 @@
         <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>12</v>
@@ -861,7 +867,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -888,7 +894,7 @@
         <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>12</v>
@@ -1184,7 +1190,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1211,7 +1217,7 @@
         <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>12</v>
@@ -1507,7 +1513,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1534,7 +1540,7 @@
         <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>12</v>
@@ -1790,7 +1796,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1818,7 +1824,7 @@
         <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>12</v>
@@ -2115,7 +2121,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2139,7 +2145,7 @@
         <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>12</v>
@@ -2432,17 +2438,17 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2459,7 +2465,7 @@
         <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>12</v>
@@ -2481,7 +2487,9 @@
       <c r="E2" s="1">
         <v>45</v>
       </c>
-      <c r="F2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -2499,7 +2507,9 @@
       <c r="E3" s="1">
         <v>45</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -2517,7 +2527,9 @@
       <c r="E4" s="1">
         <v>45</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -2535,7 +2547,9 @@
       <c r="E5" s="1">
         <v>45</v>
       </c>
-      <c r="F5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -2553,7 +2567,9 @@
       <c r="E6" s="1">
         <v>45</v>
       </c>
-      <c r="F6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -2571,7 +2587,9 @@
       <c r="E7" s="1">
         <v>45</v>
       </c>
-      <c r="F7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -2589,7 +2607,9 @@
       <c r="E8" s="1">
         <v>45</v>
       </c>
-      <c r="F8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -2607,7 +2627,9 @@
       <c r="E9" s="1">
         <v>45</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -2625,7 +2647,9 @@
       <c r="E10" s="1">
         <v>45</v>
       </c>
-      <c r="F10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -2643,7 +2667,9 @@
       <c r="E11" s="1">
         <v>45</v>
       </c>
-      <c r="F11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -2661,7 +2687,9 @@
       <c r="E12" s="1">
         <v>45</v>
       </c>
-      <c r="F12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -2679,7 +2707,9 @@
       <c r="E13" s="1">
         <v>45</v>
       </c>
-      <c r="F13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
@@ -2697,7 +2727,9 @@
       <c r="E14" s="1">
         <v>45</v>
       </c>
-      <c r="F14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
@@ -2715,7 +2747,15 @@
       <c r="E15" s="1">
         <v>45</v>
       </c>
-      <c r="F15" s="1"/>
+      <c r="F15" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
